--- a/biology/Zoologie/Coluber_slevini/Coluber_slevini.xlsx
+++ b/biology/Zoologie/Coluber_slevini/Coluber_slevini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coluber slevini est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coluber slevini est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'Île de San Esteban au Sonora au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'Île de San Esteban au Sonora au Mexique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Joseph Richard Slevin[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Joseph Richard Slevin.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lowe &amp; Norris, 1955 : Analysis of the herpetofauna of Baja California, Mexico. III. New and revived reptilian subspecies of Isla San Esteban, Gulf of California, Sonora, Mexico, with notes on other islands in the Gulf of California. Herpetologica, vol. 11, no 2, p. 89-96.</t>
         </is>
